--- a/테스트.xlsx
+++ b/테스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanwha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanwha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7290BB7D-607A-455A-9BC7-AE684E591DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0E7C8-9714-48A5-8781-71328CD79B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2911769-01B8-49CA-8C1D-36B916B4B005}"/>
+    <workbookView xWindow="-53805" yWindow="4140" windowWidth="24780" windowHeight="11235" xr2:uid="{B2911769-01B8-49CA-8C1D-36B916B4B005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트수정1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +89,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,17 +430,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E51A8B-2867-4407-A61D-2ABEC4FB9E6D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
